--- a/tp9/tp9_tests.xlsx
+++ b/tp9/tp9_tests.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a724c46752e19356/Bureau/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siwar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{151FDB24-D316-4DB4-856B-E00AE19007D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E90AF4-D1E5-4472-A6B4-433810855C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="26136" windowHeight="16776" xr2:uid="{95837E5C-18F7-4D55-A682-0DCA3EAE6A6C}"/>
+    <workbookView xWindow="12864" yWindow="0" windowWidth="13152" windowHeight="16656" xr2:uid="{95837E5C-18F7-4D55-A682-0DCA3EAE6A6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
-  <si>
-    <t>F.den</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="67">
   <si>
     <t>fontion</t>
   </si>
@@ -47,67 +44,199 @@
     <t>resultat</t>
   </si>
   <si>
-    <t xml:space="preserve">Fraction(3,0) </t>
-  </si>
-  <si>
-    <t>Lance Div_zero_Exception</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fraction(2,0)   </t>
-  </si>
-  <si>
-    <t>__str__</t>
-  </si>
-  <si>
-    <t>"3/4"</t>
-  </si>
-  <si>
     <t>valeur num</t>
   </si>
   <si>
     <t>valeur den</t>
   </si>
   <si>
-    <t xml:space="preserve">F=Fraction(1,2) , F.num </t>
-  </si>
-  <si>
-    <t>__float__</t>
-  </si>
-  <si>
     <t>0.5</t>
   </si>
   <si>
-    <t>as_mixed_number</t>
-  </si>
-  <si>
-    <t>"The mixed number is 2 and 1/3"</t>
-  </si>
-  <si>
-    <t>__add__</t>
-  </si>
-  <si>
-    <t>true_div</t>
-  </si>
-  <si>
-    <t>is_adjacent_to</t>
-  </si>
-  <si>
     <t>True</t>
   </si>
   <si>
-    <t>__eq__</t>
-  </si>
-  <si>
     <t>False</t>
   </si>
   <si>
-    <t>is_integer</t>
-  </si>
-  <si>
-    <t>is_proper</t>
-  </si>
-  <si>
-    <t>is_zero</t>
+    <t>test_init2</t>
+  </si>
+  <si>
+    <t>ZeroDivisionError</t>
+  </si>
+  <si>
+    <t>test_is_unit</t>
+  </si>
+  <si>
+    <t>test_is_zero</t>
+  </si>
+  <si>
+    <t>Fraction(2,3)</t>
+  </si>
+  <si>
+    <t>Fraction(-3,12)</t>
+  </si>
+  <si>
+    <t>Fraction(0,6)</t>
+  </si>
+  <si>
+    <t>test_mul   A=&gt;</t>
+  </si>
+  <si>
+    <t>B=&gt;</t>
+  </si>
+  <si>
+    <t>C=&gt;</t>
+  </si>
+  <si>
+    <t>D=&gt;</t>
+  </si>
+  <si>
+    <t>A*B</t>
+  </si>
+  <si>
+    <t>A*C</t>
+  </si>
+  <si>
+    <t>A*D</t>
+  </si>
+  <si>
+    <t>Fraction(1,9)</t>
+  </si>
+  <si>
+    <t>Fraction(1,1)</t>
+  </si>
+  <si>
+    <t>A**B</t>
+  </si>
+  <si>
+    <t>A**D</t>
+  </si>
+  <si>
+    <t>test_pow     A=&gt;</t>
+  </si>
+  <si>
+    <t>test_sub      A=&gt;</t>
+  </si>
+  <si>
+    <t>Fraction(-5,3)</t>
+  </si>
+  <si>
+    <t>Fraction(13,12)</t>
+  </si>
+  <si>
+    <t>Fraction(1,3)</t>
+  </si>
+  <si>
+    <t>A-B</t>
+  </si>
+  <si>
+    <t>A-C</t>
+  </si>
+  <si>
+    <t>A-D</t>
+  </si>
+  <si>
+    <t>test_is_proper</t>
+  </si>
+  <si>
+    <t>test_is_integer</t>
+  </si>
+  <si>
+    <t>test__eq__                       A=&gt;</t>
+  </si>
+  <si>
+    <t>A==B</t>
+  </si>
+  <si>
+    <t>A==C</t>
+  </si>
+  <si>
+    <t>A==D</t>
+  </si>
+  <si>
+    <t>A is adjacent to B</t>
+  </si>
+  <si>
+    <t>A is adjacent to C</t>
+  </si>
+  <si>
+    <t>A is adjacent to D</t>
+  </si>
+  <si>
+    <t>test_is_adjacent_to</t>
+  </si>
+  <si>
+    <t>test_true_div2       A=&gt;</t>
+  </si>
+  <si>
+    <t>A.__truediv(D)</t>
+  </si>
+  <si>
+    <t>test_truediv1         A=&gt;</t>
+  </si>
+  <si>
+    <t>Fraction(1,2)</t>
+  </si>
+  <si>
+    <t>Fraction(-4,9)</t>
+  </si>
+  <si>
+    <t>test__add__</t>
+  </si>
+  <si>
+    <t>Fraction(5,2)</t>
+  </si>
+  <si>
+    <t>Fraction(-1,4)</t>
+  </si>
+  <si>
+    <t>A+B</t>
+  </si>
+  <si>
+    <t>A+C</t>
+  </si>
+  <si>
+    <t>A+D</t>
+  </si>
+  <si>
+    <t>"0 + 1/2"</t>
+  </si>
+  <si>
+    <t>"2+ 0/1"</t>
+  </si>
+  <si>
+    <t>"-1 + 1/4"</t>
+  </si>
+  <si>
+    <t>"0 + 0/1"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test_float </t>
+  </si>
+  <si>
+    <t>-0.75</t>
+  </si>
+  <si>
+    <t>"1/2"</t>
+  </si>
+  <si>
+    <t>"-2/7"</t>
+  </si>
+  <si>
+    <t>"2/1"</t>
+  </si>
+  <si>
+    <t>"2/7"</t>
+  </si>
+  <si>
+    <t>"0/1"</t>
+  </si>
+  <si>
+    <t>test__str__</t>
+  </si>
+  <si>
+    <t>test_as_mixed_number</t>
   </si>
 </sst>
 </file>
@@ -145,7 +274,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8087EC21-F5DA-4C6B-8012-3F1873E2EE0F}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -472,307 +601,805 @@
     <col min="2" max="2" width="26.21875" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="30.21875" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
       <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>4</v>
+        <v>-2</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
       <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>-7</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
       <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3</v>
+        <v>-2</v>
+      </c>
+      <c r="C10">
+        <v>-7</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
       <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>-3</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>-3</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>-3</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33">
+        <v>-3</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>-3</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>6</v>
+      </c>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47">
+        <v>-3</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>6</v>
+      </c>
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>-3</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>-3</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>6</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>-3</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>6</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>-3</v>
+      </c>
+      <c r="C69">
+        <v>4</v>
+      </c>
+      <c r="D69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73">
+        <v>6</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>16</v>
+      </c>
+      <c r="B74">
+        <v>-3</v>
+      </c>
+      <c r="C74">
+        <v>4</v>
+      </c>
+      <c r="D74" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="E74" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78">
+        <v>6</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78" t="s">
         <v>21</v>
       </c>
-      <c r="B26">
-        <v>3</v>
-      </c>
-      <c r="C26">
-        <v>3</v>
-      </c>
-      <c r="D26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27">
-        <v>6</v>
-      </c>
-      <c r="C27">
-        <v>3</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="E78" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s">
         <v>22</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-      <c r="D29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B30">
-        <v>6</v>
-      </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
-      <c r="D30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>3</v>
-      </c>
-      <c r="D32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33">
-        <v>6</v>
-      </c>
-      <c r="C33">
-        <v>3</v>
-      </c>
-      <c r="D33" t="s">
-        <v>20</v>
+      <c r="E79" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>26</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82">
+        <v>6</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82" t="s">
+        <v>27</v>
+      </c>
+      <c r="E82" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83">
+        <v>-3</v>
+      </c>
+      <c r="C83">
+        <v>4</v>
+      </c>
+      <c r="D83" t="s">
+        <v>28</v>
+      </c>
+      <c r="E83" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>17</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84" t="s">
+        <v>29</v>
+      </c>
+      <c r="E84" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
